--- a/learn-git/asset/graph.xlsx
+++ b/learn-git/asset/graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54170A50-DBBB-464A-B205-860FBBF6992A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287B4DB6-DE3F-4A3B-BC68-8910D91633F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stage" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="merge" sheetId="3" r:id="rId3"/>
     <sheet name="branch-workflow" sheetId="4" r:id="rId4"/>
     <sheet name="remote-branch" sheetId="5" r:id="rId5"/>
-    <sheet name="repo-workflow" sheetId="6" r:id="rId6"/>
+    <sheet name="remote-repository" sheetId="6" r:id="rId6"/>
     <sheet name="reset" sheetId="7" r:id="rId7"/>
     <sheet name="internal" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -100,8 +100,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -117,7 +117,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4025900" y="476250"/>
-          <a:ext cx="1606550" cy="3968750"/>
+          <a:ext cx="1606550" cy="4870450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -161,8 +161,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -178,7 +178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="831850" y="431800"/>
-          <a:ext cx="3181350" cy="4032250"/>
+          <a:ext cx="3181350" cy="4883150"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -222,7 +222,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -239,7 +239,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5645150" y="482600"/>
-          <a:ext cx="1606550" cy="3956050"/>
+          <a:ext cx="1606550" cy="4845050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -533,15 +533,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>260243</xdr:colOff>
+      <xdr:colOff>252876</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -558,8 +558,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1581043" y="1270000"/>
-          <a:ext cx="28682" cy="3016250"/>
+          <a:off x="1573676" y="1270000"/>
+          <a:ext cx="36049" cy="3790950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -586,15 +586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>566081</xdr:colOff>
+      <xdr:colOff>559418</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>593728</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>593729</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -609,8 +609,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3207681" y="1270000"/>
-          <a:ext cx="27647" cy="3003550"/>
+          <a:off x="3201018" y="1270000"/>
+          <a:ext cx="34311" cy="3727450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -637,15 +637,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>156816</xdr:colOff>
+      <xdr:colOff>151211</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>178859</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -662,8 +662,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4779616" y="1270000"/>
-          <a:ext cx="22043" cy="2971800"/>
+          <a:off x="4774011" y="1270000"/>
+          <a:ext cx="27648" cy="3727450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -690,15 +690,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>435411</xdr:colOff>
+      <xdr:colOff>430827</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>454025</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -715,8 +715,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6379011" y="1270000"/>
-          <a:ext cx="18614" cy="2965450"/>
+          <a:off x="6374427" y="1270000"/>
+          <a:ext cx="23198" cy="3695700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1121,6 +1121,1016 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>编辑文件</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="箭头: 左右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CDB8D6-7F47-4DA0-BEEF-B1D093886985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3206750" y="4337050"/>
+          <a:ext cx="1555750" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git diff</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="箭头: 左右 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51A9790-92D9-4E63-A099-52076B6B2645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4787900" y="4343400"/>
+          <a:ext cx="1562100" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git diff --cache</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="流程图: 可选过程 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9270F3C-CB9E-4D3D-9481-DD35D7A3812A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8623300" y="5734050"/>
+          <a:ext cx="1606550" cy="4324350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>暂存区</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="流程图: 可选过程 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40257D46-A5F7-4652-8878-FF0EBB7136F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="5689600"/>
+          <a:ext cx="3181350" cy="4337050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>工作目录</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="流程图: 可选过程 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AF298A-CAB6-4C37-9F34-B1EB24C8DD0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="5727700"/>
+          <a:ext cx="1606550" cy="4311650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Git</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>仓库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="箭头: 右 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81C6FC2-D028-4145-9D6D-78EC1A2B82BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="6343650"/>
+          <a:ext cx="2025650" cy="501650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git add file</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="箭头: 左 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95B6B8C-CADB-459D-9CA8-B3243EAEFD32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4997450" y="6775450"/>
+          <a:ext cx="4578350" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git commit</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129032</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="箭头: 右 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB9B451-D8EF-45B2-9723-611FF679AC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7823200" y="8356600"/>
+          <a:ext cx="1549400" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>编辑文件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="流程图: 可选过程 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D23604-CAF0-4BBC-9F14-DCFB2044E907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3816350" y="7378700"/>
+          <a:ext cx="1606550" cy="2641600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>分支</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="流程图: 可选过程 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A0A49C-8E19-4CBF-A2EB-EF128ADEDE91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3816350" y="8540750"/>
+          <a:ext cx="1606550" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>跟踪分支</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="流程图: 可选过程 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBBA3DA-0E95-42E4-B8A1-AD1C2BAAE2A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="5695950"/>
+          <a:ext cx="1606550" cy="4324350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>远程仓库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="箭头: 右 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E50C8E-CB8D-4E1C-8A78-1C8D90EA0548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1701800" y="6305550"/>
+          <a:ext cx="5321300" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git pull</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="箭头: 右 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFDC7E70-E1BC-4964-BF9B-00B83F286E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1778000" y="9105900"/>
+          <a:ext cx="2762250" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git fetch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="箭头: 右 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C71D2E-B61B-43FB-B6F8-C9AA61D52097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1682750" y="7905750"/>
+          <a:ext cx="2768600" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git push</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="箭头: 右 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2192141B-07C0-4B27-A4FC-DF7A14705EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4984750" y="7448550"/>
+          <a:ext cx="1619250" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git checkout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="箭头: 右 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFEC770-DE82-488C-8785-EB1C62801D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4406900" y="8502650"/>
+          <a:ext cx="1504950" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git merge</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -28933,8 +29943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -28999,7 +30009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C406C1-5267-4272-B57D-60894AE1177A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
@@ -29015,7 +30025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179AA727-5E47-4D1D-92CB-E0F8CDD53300}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
@@ -29049,7 +30059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107419BE-A7AE-47B6-8A5C-E175143BC5D7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
